--- a/Promociones.xlsx
+++ b/Promociones.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,214 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Laptop Lenovo IdeaPad Slim 3 15IRU8 15.6" Full HD, Intel Core i3-1305U 1.60GHz, 8GB, 256GB SSD, Windows 11 Home 64-bit, Español, Azul Escarcha</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>$8,445.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$7,599.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$128.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Manhattan Soporte 462136 para Escritorio Combinado con Brazo para Monitor y Soporte para Laptop 13" a 32", hasta 8 Kg, Negro</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>$1,629.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$1,369.00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$128.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Laptop HP ProBook 450 G9 15.6" HD, Intel Core i5-1235U 3.30GHz, 16GB, 512GB SSD, Windows 11 Pro 64-bit, Español, Plata</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>$19,833.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$18,649.00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$128.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Targus Mochila Spruce EcoSmart para Laptop 15.6'', Negro</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>$1,319.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$1,039.00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$186.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Targus Mochila Legend IQ para Laptop hasta 16" Negro</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>$1,038.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$889.00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$128.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Laptop HP ProBook 440 G9 14" Full HD, Intel Core i7-1255U 3.50GHz, 16GB, 512GB SSD, Windows 11 Pro 64-bit, Español, Plata</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>$19,655.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$15,939.00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$128.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Laptop HP ProBook 440 G9 14" Full HD, Intel Core i5-1235U 1.30GHz, 16GB, 512GB SSD, Windows 11 Pro 64-bit, Español, Plata</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>$18,627.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$15,559.00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$128.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Laptop HP 240 G8 14" HD, Intel Core i5-1135G7 2.40GHz, 8GB, 256GB SSD, Windows 11 Pro 64-bit, Español, Negro</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>$9,554.00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$8,289.00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$128.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Laptop HP 250 G9 15.6" HD, Intel Core i7-1255U 3.50GHz, 8GB, 256GB SSD, Windows 11 Pro 64-bit, Español, Negro</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>$17,642.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$16,189.00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$128.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Laptop HP ProBook 450 G9 15.6" HD, Intel Core i7-1255U 1.70GHz, 16GB, 512GB SSD, Windows 11 Pro, Español, Plata</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Promociones.xlsx
+++ b/Promociones.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,61 +446,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kensington Base martFit Easy Riser para Laptop 17", Gris</t>
+          <t>Laptop Lenovo IdeaPad Slim 3 15IRU8 15.6" Full HD, Intel Core i7-1355U 1.70GHz, 16GB, 1TB SSD, Windows 11 Home 64-bit, Español, Gris</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$281.00</t>
+          <t>$17,475.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$151.00</t>
+          <t>$15,999.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$109.00</t>
+          <t>$128.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Laptop HP ProBook 440 G9 14" Full HD, Intel Core i7-1255U 1.70GHz, 16GB, 512GB SSD, Windows 11 Pro 64-bit, Español, Plata</t>
+          <t>Kensington Base martFit Easy Riser para Laptop 17", Gris</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$19,633.00</t>
+          <t>$283.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$15,939.00</t>
+          <t>$151.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$128.00</t>
+          <t>$109.00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Laptop HP 240 G9 14" HD, Intel Core i3-1215U 1.20GHz, 8GB, 256GB SSD, Windows 11 Home, Español, Negro</t>
+          <t>Laptop HP ProBook 440 G9 14" Full HD, Intel Core i7-1255U 1.70GHz, 16GB, 512GB SSD, Windows 11 Pro 64-bit, Español, Plata</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$6,869.00</t>
+          <t>$19,633.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$5,529.00</t>
+          <t>$15,939.00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -512,17 +512,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Laptop Gamer Lenovo IdeaPad Gaming 3 15ARH7 15.6" Full HD, AMD Ryzen 5 6600H 3.30GHz, 8GB, 512GB SSD, NVIDIA GeForce RTX 3050, WIndows 11 Home 64-bit, Español, Gris Onyx</t>
+          <t>Laptop HP 240 G9 14" HD, Intel Core i3-1215U 1.20GHz, 8GB, 256GB SSD, Windows 11 Home, Español, Negro</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$15,712.00</t>
+          <t>$6,891.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$13,339.00</t>
+          <t>$5,529.00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$11,368.00</t>
+          <t>$11,345.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$9,559.00</t>
+          <t>$9,589.00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -578,39 +578,39 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Laptop HP 255 G8 15.6" Full HD, AMD Ryzen 5 5500U 2.10GHz, 8GB, 256GB SSD, Windows 11 Home 64-bit, Español, Negro</t>
+          <t>Laptop Dell Inspiron 3535 15.6" Full HD, AMD Ryzen 5 7520U 2.80GHz, 8GB, 512GB SSD, Windows 11 Home 64-bit, Español, Plata</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$8,089.00</t>
+          <t>$8,351.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$6,829.00</t>
+          <t>$7,279.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$186.00</t>
+          <t>$128.00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Laptop Acer Aspire Lite 14 AL14-31P-353Y 14" WUXGA, Intel Core i3-N300 1.80GHz, 8GB, 512GB SSD, Windows 11 Home 64-bit, Español, Plata</t>
+          <t>Laptop HP 245 G8 14" HD, AMD Ryzen 3 3250 2.60GHz, 8GB, 256GB SSD, Windows 11 Home 64-bit, Español, Plata</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$7,178.00</t>
+          <t>$8,093.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$6,429.00</t>
+          <t>$6,999.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -622,17 +622,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Laptop Gamer Lenovo LOQ 16APH8 16" WUXGA, AMD Ryzen 7 7840HS 3.8GHz, 16GB, 1TB SSD, NVIDIA GeForce RTX 4060, Windows 11 Home 64-bit, Español, Gris</t>
+          <t>Laptop HP 245 G9 14" HD, AMD Ryzen 3 3250U 2.60GHz, 8GB, 256GB SSD, Windows 11 Home 64-bit, Español, Negro</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$27,188.00</t>
+          <t>$6,132.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$24,119.00</t>
+          <t>$5,349.00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -644,17 +644,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Laptop Lenovo V14 G3 ABA 14" Full HD, AMD Ryzen 7 5825U 2GHz, 16GB, 512GB SSD, Windows 11 Pro 64-bit, Español, Gris</t>
+          <t>Dell Mochila GM1720PM para Laptop 17", Negro</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$12,958.00</t>
+          <t>$988.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$11,459.00</t>
+          <t>$859.00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -666,17 +666,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Laptop Gamer Lenovo LOQ 16IRH8 16" WUXGA, Intel Core i7-13620H 3.60GHz, 16GB, 512GB SSD, NVIDIA GeForce RTX 4060, Windows 11 Home 64-bit, Español, Gris</t>
+          <t>Laptop Lenovo IdeaPad Slim 3 15IRU8 15.6" Full HD, Intel Core i3-1305U 1.60GHz, 8GB, 256GB SSD, Windows 11 Home 64-bit, Español, Azul Escarcha</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$27,221.00</t>
+          <t>$8,433.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$23,999.00</t>
+          <t>$7,579.00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -688,17 +688,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Laptop Dell Latitude 5440 14" Full HD, Intel Core i7-1355U 1.70GHz, 16GB, 512GB SSD, Windows 11 Pro 64-bit, Español, Gris</t>
+          <t>Laptop Gamer Lenovo LOQ 16IRH8 16" WUXGA, Intel Core i7-13620H 3.60GHz, 16GB, 512GB SSD, NVIDIA GeForce RTX 4060, Windows 11 Home 64-bit, Español, Gris</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$26,507.00</t>
+          <t>$26,047.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$22,949.00</t>
+          <t>$23,829.00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -710,17 +710,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dell Mochila GM1720PM para Laptop 17", Negro</t>
+          <t>Manhattan Soporte 462136 para Escritorio Combinado con Brazo para Monitor y Soporte para Laptop 13" a 32", hasta 8 Kg, Negro</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$1,030.00</t>
+          <t>$1,630.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$869.00</t>
+          <t>$1,379.00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -732,39 +732,39 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Laptop HP 245 G8 14" HD, AMD Ryzen 3 3250 2.60GHz, 8GB, 256GB SSD, Windows 11 Home 64-bit, Español, Plata</t>
+          <t>Targus Mochila Spruce EcoSmart para Laptop 15.6'', Negro</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$8,093.00</t>
+          <t>$1,319.00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$6,999.00</t>
+          <t>$1,039.00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>$128.00</t>
+          <t>$186.00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Laptop Lenovo IdeaPad Gaming 3 16ARH7 15.6" Full HD, AMD Ryzen 7 6800H 3.20GHz, 16GB, 512GB SSD, NVIDIA GeForce RTX 3050 Ti, Windows 11 Home 64-bit, Español, Gris Oscuro</t>
+          <t>Targus Mochila Legend IQ para Laptop hasta 16" Negro</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$20,558.00</t>
+          <t>$1,037.00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$17,929.00</t>
+          <t>$889.00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -776,17 +776,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Laptop HP 245 G9 14" HD, AMD Ryzen 3 3250U 2.60GHz, 8GB, 256GB SSD, Windows 11 Home 64-bit, Español, Negro</t>
+          <t>Laptop HP ProBook 440 G9 14" Full HD, Intel Core i7-1255U 3.50GHz, 16GB, 512GB SSD, Windows 11 Pro 64-bit, Español, Plata</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$6,185.00</t>
+          <t>$19,909.00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$5,459.00</t>
+          <t>$15,939.00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -798,17 +798,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Laptop Lenovo IdeaPad Slim 3 15IRU8 15.6" Full HD, Intel Core i3-1305U 1.60GHz, 8GB, 256GB SSD, Windows 11 Home 64-bit, Español, Azul Escarcha</t>
+          <t>Laptop HP ProBook 440 G9 14" Full HD, Intel Core i5-1235U 1.30GHz, 16GB, 512GB SSD, Windows 11 Pro 64-bit, Español, Plata</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$8,445.00</t>
+          <t>$18,627.00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$7,599.00</t>
+          <t>$15,559.00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -820,17 +820,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Manhattan Soporte 462136 para Escritorio Combinado con Brazo para Monitor y Soporte para Laptop 13" a 32", hasta 8 Kg, Negro</t>
+          <t>Laptop HP 240 G8 14" HD, Intel Core i5-1135G7 2.40GHz, 8GB, 256GB SSD, Windows 11 Pro 64-bit, Español, Negro</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$1,629.00</t>
+          <t>$9,569.00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$1,369.00</t>
+          <t>$8,289.00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -842,17 +842,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Laptop HP ProBook 450 G9 15.6" HD, Intel Core i5-1235U 3.30GHz, 16GB, 512GB SSD, Windows 11 Pro 64-bit, Español, Plata</t>
+          <t>Laptop HP 250 G9 15.6" HD, Intel Core i7-1255U 3.50GHz, 8GB, 256GB SSD, Windows 11 Pro 64-bit, Español, Negro</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$19,833.00</t>
+          <t>$17,647.00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$18,649.00</t>
+          <t>$15,719.00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -864,144 +864,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Targus Mochila Spruce EcoSmart para Laptop 15.6'', Negro</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>$1,319.00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>$1,039.00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$186.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Targus Mochila Legend IQ para Laptop hasta 16" Negro</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>$1,038.00</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>$889.00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$128.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Laptop HP ProBook 440 G9 14" Full HD, Intel Core i7-1255U 3.50GHz, 16GB, 512GB SSD, Windows 11 Pro 64-bit, Español, Plata</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>$19,655.00</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>$15,939.00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$128.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Laptop HP ProBook 440 G9 14" Full HD, Intel Core i5-1235U 1.30GHz, 16GB, 512GB SSD, Windows 11 Pro 64-bit, Español, Plata</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>$18,627.00</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>$15,559.00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$128.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Laptop HP 240 G8 14" HD, Intel Core i5-1135G7 2.40GHz, 8GB, 256GB SSD, Windows 11 Pro 64-bit, Español, Negro</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>$9,554.00</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>$8,289.00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$128.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Laptop HP 250 G9 15.6" HD, Intel Core i7-1255U 3.50GHz, 8GB, 256GB SSD, Windows 11 Pro 64-bit, Español, Negro</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>$17,642.00</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>$16,189.00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$128.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Laptop HP ProBook 450 G9 15.6" HD, Intel Core i7-1255U 1.70GHz, 16GB, 512GB SSD, Windows 11 Pro, Español, Plata</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+          <t>Laptop Dell Latitude 5440 14" Full HD, Intel Core i7-1355U 1.70GHz, 16GB, 512GB SSD, Windows 11 Pro 64-bit, Español, Gris</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
